--- a/ChilwaBasinAllData/Dataset/dataset_05.11.xlsx
+++ b/ChilwaBasinAllData/Dataset/dataset_05.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\OneDrive - York University\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F052FDB7-3794-4C0F-ACD0-58C0B3A5DA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D2879-B582-4DD5-959C-7BF02788E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{E52436F2-D984-4EE3-B8A0-F9D4A91B50A0}"/>
   </bookViews>
@@ -107,21 +107,6 @@
     <t>TotalFishCatch</t>
   </si>
   <si>
-    <t>CholeraCasesZomba</t>
-  </si>
-  <si>
-    <t>MalariaCasesZomba</t>
-  </si>
-  <si>
-    <t>DiarrheaCasesZomba</t>
-  </si>
-  <si>
-    <t>CholeraCasesAllDistricts</t>
-  </si>
-  <si>
-    <t>CholeraDeathsAllDistricts</t>
-  </si>
-  <si>
     <t>Population_Zomba</t>
   </si>
   <si>
@@ -137,22 +122,37 @@
     <t>SchistosomiasisCases_Machinga</t>
   </si>
   <si>
-    <t>Diarrhoea_Zomba</t>
-  </si>
-  <si>
-    <t>Diarrhoea_Machinga</t>
-  </si>
-  <si>
-    <t>Malnutrition_LT5_NewCasesAllDistricts</t>
-  </si>
-  <si>
-    <t>Malnutrition_LT5_InpatientDeathsAllDistricts</t>
-  </si>
-  <si>
     <t>DiarrhoeaCases_AllDistricts</t>
   </si>
   <si>
     <t>SchistosomiasisCases_AllDistricts</t>
+  </si>
+  <si>
+    <t>CholeraCases_AllDistricts</t>
+  </si>
+  <si>
+    <t>CholeraDeaths_AllDistricts</t>
+  </si>
+  <si>
+    <t>Malnutrition_LT5_NewCases_AllDistricts</t>
+  </si>
+  <si>
+    <t>Malnutrition_LT5_InpatientDeaths_AllDistricts</t>
+  </si>
+  <si>
+    <t>DiarrhoeaCases_Zomba</t>
+  </si>
+  <si>
+    <t>DiarrhoeaCases_Machinga</t>
+  </si>
+  <si>
+    <t>CholeraCasesDOH_Zomba</t>
+  </si>
+  <si>
+    <t>MalariaCasesDOH_Zomba</t>
+  </si>
+  <si>
+    <t>DiarrheaCasesDOH_Zomba</t>
   </si>
 </sst>
 </file>
@@ -528,9 +528,9 @@
   </sheetPr>
   <dimension ref="A1:AL925"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="AM1" sqref="AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -633,52 +633,52 @@
         <v>10</v>
       </c>
       <c r="V1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AI1" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>22</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>27</v>
       </c>
       <c r="AL1" t="s">
         <v>21</v>

--- a/ChilwaBasinAllData/Dataset/dataset_05.11.xlsx
+++ b/ChilwaBasinAllData/Dataset/dataset_05.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ali\OneDrive - York University\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D2879-B582-4DD5-959C-7BF02788E633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8453F0-5C12-4F40-819C-B3E4327C5D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{E52436F2-D984-4EE3-B8A0-F9D4A91B50A0}"/>
   </bookViews>
@@ -528,9 +528,9 @@
   </sheetPr>
   <dimension ref="A1:AL925"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM1" sqref="AM1"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
